--- a/public/template/Baseline_sample_template.xlsx
+++ b/public/template/Baseline_sample_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tester\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0FFF7D1-2E2A-482F-9AAA-97B9C7DDDF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547234A3-C59B-4426-8BED-C0C00CB6AF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="288" yWindow="384" windowWidth="22752" windowHeight="6816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="with_all_correctdata" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Order Received Data and Time</t>
   </si>
@@ -108,6 +108,33 @@
   </si>
   <si>
     <t>COS</t>
+  </si>
+  <si>
+    <t>Typist</t>
+  </si>
+  <si>
+    <t>Typist QC</t>
+  </si>
+  <si>
+    <t>SIPL0102</t>
+  </si>
+  <si>
+    <t>SIPL5317</t>
+  </si>
+  <si>
+    <t>Typing</t>
+  </si>
+  <si>
+    <t>Exam Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blount </t>
+  </si>
+  <si>
+    <t>Typing(T1)</t>
+  </si>
+  <si>
+    <t>Be18-002</t>
   </si>
 </sst>
 </file>
@@ -117,7 +144,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,8 +291,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,8 +492,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -582,6 +629,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -627,12 +700,20 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -990,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1008,7 +1089,7 @@
     <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1022,34 +1103,40 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45509.0625</v>
       </c>
@@ -1062,30 +1149,73 @@
       <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>45512.0625</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/public/template/Baseline_sample_template.xlsx
+++ b/public/template/Baseline_sample_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tester\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547234A3-C59B-4426-8BED-C0C00CB6AF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0FFF7D1-2E2A-482F-9AAA-97B9C7DDDF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="384" windowWidth="22752" windowHeight="6816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="with_all_correctdata" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Order Received Data and Time</t>
   </si>
@@ -108,33 +108,6 @@
   </si>
   <si>
     <t>COS</t>
-  </si>
-  <si>
-    <t>Typist</t>
-  </si>
-  <si>
-    <t>Typist QC</t>
-  </si>
-  <si>
-    <t>SIPL0102</t>
-  </si>
-  <si>
-    <t>SIPL5317</t>
-  </si>
-  <si>
-    <t>Typing</t>
-  </si>
-  <si>
-    <t>Exam Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blount </t>
-  </si>
-  <si>
-    <t>Typing(T1)</t>
-  </si>
-  <si>
-    <t>Be18-002</t>
   </si>
 </sst>
 </file>
@@ -144,7 +117,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,22 +264,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,14 +451,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -629,32 +582,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -700,20 +627,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1071,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1089,7 +1008,7 @@
     <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1103,40 +1022,34 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45509.0625</v>
       </c>
@@ -1149,73 +1062,30 @@
       <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1" t="s">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>45512.0625</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
